--- a/ODE/Figures/Table_2.xlsx
+++ b/ODE/Figures/Table_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
   <si>
     <t>Strategy</t>
   </si>
@@ -208,6 +208,111 @@
   </si>
   <si>
     <t>150 days</t>
+  </si>
+  <si>
+    <t>120 days</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>SD-AVC</t>
+  </si>
+  <si>
+    <t>FDA-AVC</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>Incidence</t>
+  </si>
+  <si>
+    <t>164.44(161.04–167.73)</t>
+  </si>
+  <si>
+    <t>153.22(149.87–156.76)</t>
+  </si>
+  <si>
+    <t>161.75(158.22–165.10)</t>
+  </si>
+  <si>
+    <t>155.73(152.18–159.23)</t>
+  </si>
+  <si>
+    <t>153.67(150.25–157.05)</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>10.38(10.18–10.57)</t>
+  </si>
+  <si>
+    <t>9.14(8.95–9.34)</t>
+  </si>
+  <si>
+    <t>9.74(9.55–9.95)</t>
+  </si>
+  <si>
+    <t>9.68(9.47–9.88)</t>
+  </si>
+  <si>
+    <t>9.57(9.38–9.78)</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>4.07(3.98–4.15)</t>
+  </si>
+  <si>
+    <t>3.52(3.43–3.60)</t>
+  </si>
+  <si>
+    <t>3.72(3.64–3.80)</t>
+  </si>
+  <si>
+    <t>3.80(3.72–3.89)</t>
+  </si>
+  <si>
+    <t>3.79(3.71–3.88)</t>
+  </si>
+  <si>
+    <t>Direct_Costs</t>
+  </si>
+  <si>
+    <t>30.47(29.89–31.04)</t>
+  </si>
+  <si>
+    <t>26.84(26.25–27.42)</t>
+  </si>
+  <si>
+    <t>28.67(28.10–29.26)</t>
+  </si>
+  <si>
+    <t>28.41(27.81–29.00)</t>
+  </si>
+  <si>
+    <t>28.10(27.52–28.71)</t>
+  </si>
+  <si>
+    <t>Time_Dose</t>
+  </si>
+  <si>
+    <t>Inf days</t>
+  </si>
+  <si>
+    <t>150 days</t>
+  </si>
+  <si>
+    <t>180 days</t>
   </si>
   <si>
     <t>120 days</t>
@@ -269,122 +374,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ODE/Figures/Table_2.xlsx
+++ b/ODE/Figures/Table_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
   <si>
     <t>Strategy</t>
   </si>
@@ -229,6 +229,111 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>Incidence</t>
+  </si>
+  <si>
+    <t>164.44(161.04–167.73)</t>
+  </si>
+  <si>
+    <t>153.22(149.87–156.76)</t>
+  </si>
+  <si>
+    <t>161.75(158.22–165.10)</t>
+  </si>
+  <si>
+    <t>155.73(152.18–159.23)</t>
+  </si>
+  <si>
+    <t>153.67(150.25–157.05)</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>10.38(10.18–10.57)</t>
+  </si>
+  <si>
+    <t>9.14(8.95–9.34)</t>
+  </si>
+  <si>
+    <t>9.74(9.55–9.95)</t>
+  </si>
+  <si>
+    <t>9.68(9.47–9.88)</t>
+  </si>
+  <si>
+    <t>9.57(9.38–9.78)</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>4.07(3.98–4.15)</t>
+  </si>
+  <si>
+    <t>3.52(3.43–3.60)</t>
+  </si>
+  <si>
+    <t>3.72(3.64–3.80)</t>
+  </si>
+  <si>
+    <t>3.80(3.72–3.89)</t>
+  </si>
+  <si>
+    <t>3.79(3.71–3.88)</t>
+  </si>
+  <si>
+    <t>Direct_Costs</t>
+  </si>
+  <si>
+    <t>30.47(29.89–31.04)</t>
+  </si>
+  <si>
+    <t>26.84(26.25–27.42)</t>
+  </si>
+  <si>
+    <t>28.67(28.10–29.26)</t>
+  </si>
+  <si>
+    <t>28.41(27.81–29.00)</t>
+  </si>
+  <si>
+    <t>28.10(27.52–28.71)</t>
+  </si>
+  <si>
+    <t>Time_Dose</t>
+  </si>
+  <si>
+    <t>Inf days</t>
+  </si>
+  <si>
+    <t>150 days</t>
+  </si>
+  <si>
+    <t>180 days</t>
+  </si>
+  <si>
+    <t>120 days</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>FDA-proposed</t>
+  </si>
+  <si>
+    <t>Annual with second dose for 65+</t>
+  </si>
+  <si>
+    <t>Annual with second dose for 50-64</t>
+  </si>
+  <si>
+    <t>Annual with second dose for 18-49</t>
   </si>
   <si>
     <t>Incidence</t>
@@ -364,7 +469,7 @@
   <dimension ref="A1:F6"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="true"/>
+    <col min="1" max="1" width="31.42578125" customWidth="true"/>
     <col min="2" max="2" width="20.28515625" customWidth="true"/>
     <col min="3" max="3" width="17.28515625" customWidth="true"/>
     <col min="4" max="4" width="14.28515625" customWidth="true"/>
@@ -374,122 +479,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>96</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>97</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>99</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/ODE/Figures/Table_2.xlsx
+++ b/ODE/Figures/Table_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="171">
   <si>
     <t>Strategy</t>
   </si>
@@ -229,6 +229,111 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>Incidence</t>
+  </si>
+  <si>
+    <t>164.44(161.04–167.73)</t>
+  </si>
+  <si>
+    <t>153.22(149.87–156.76)</t>
+  </si>
+  <si>
+    <t>161.75(158.22–165.10)</t>
+  </si>
+  <si>
+    <t>155.73(152.18–159.23)</t>
+  </si>
+  <si>
+    <t>153.67(150.25–157.05)</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>10.38(10.18–10.57)</t>
+  </si>
+  <si>
+    <t>9.14(8.95–9.34)</t>
+  </si>
+  <si>
+    <t>9.74(9.55–9.95)</t>
+  </si>
+  <si>
+    <t>9.68(9.47–9.88)</t>
+  </si>
+  <si>
+    <t>9.57(9.38–9.78)</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>4.07(3.98–4.15)</t>
+  </si>
+  <si>
+    <t>3.52(3.43–3.60)</t>
+  </si>
+  <si>
+    <t>3.72(3.64–3.80)</t>
+  </si>
+  <si>
+    <t>3.80(3.72–3.89)</t>
+  </si>
+  <si>
+    <t>3.79(3.71–3.88)</t>
+  </si>
+  <si>
+    <t>Direct_Costs</t>
+  </si>
+  <si>
+    <t>30.47(29.89–31.04)</t>
+  </si>
+  <si>
+    <t>26.84(26.25–27.42)</t>
+  </si>
+  <si>
+    <t>28.67(28.10–29.26)</t>
+  </si>
+  <si>
+    <t>28.41(27.81–29.00)</t>
+  </si>
+  <si>
+    <t>28.10(27.52–28.71)</t>
+  </si>
+  <si>
+    <t>Time_Dose</t>
+  </si>
+  <si>
+    <t>Inf days</t>
+  </si>
+  <si>
+    <t>150 days</t>
+  </si>
+  <si>
+    <t>180 days</t>
+  </si>
+  <si>
+    <t>120 days</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>FDA-proposed</t>
+  </si>
+  <si>
+    <t>Annual with second dose for 65+</t>
+  </si>
+  <si>
+    <t>Annual with second dose for 50-64</t>
+  </si>
+  <si>
+    <t>Annual with second dose for 18-49</t>
   </si>
   <si>
     <t>Incidence</t>
@@ -479,122 +584,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>102</v>
+        <v>137</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>126</v>
+        <v>161</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>109</v>
+        <v>144</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>118</v>
+        <v>153</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/ODE/Figures/Table_2.xlsx
+++ b/ODE/Figures/Table_2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="206">
   <si>
     <t>Strategy</t>
   </si>
@@ -229,6 +229,111 @@
   </si>
   <si>
     <t>S3</t>
+  </si>
+  <si>
+    <t>Incidence</t>
+  </si>
+  <si>
+    <t>164.44(161.04–167.73)</t>
+  </si>
+  <si>
+    <t>153.22(149.87–156.76)</t>
+  </si>
+  <si>
+    <t>161.75(158.22–165.10)</t>
+  </si>
+  <si>
+    <t>155.73(152.18–159.23)</t>
+  </si>
+  <si>
+    <t>153.67(150.25–157.05)</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>10.38(10.18–10.57)</t>
+  </si>
+  <si>
+    <t>9.14(8.95–9.34)</t>
+  </si>
+  <si>
+    <t>9.74(9.55–9.95)</t>
+  </si>
+  <si>
+    <t>9.68(9.47–9.88)</t>
+  </si>
+  <si>
+    <t>9.57(9.38–9.78)</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>4.07(3.98–4.15)</t>
+  </si>
+  <si>
+    <t>3.52(3.43–3.60)</t>
+  </si>
+  <si>
+    <t>3.72(3.64–3.80)</t>
+  </si>
+  <si>
+    <t>3.80(3.72–3.89)</t>
+  </si>
+  <si>
+    <t>3.79(3.71–3.88)</t>
+  </si>
+  <si>
+    <t>Direct_Costs</t>
+  </si>
+  <si>
+    <t>30.47(29.89–31.04)</t>
+  </si>
+  <si>
+    <t>26.84(26.25–27.42)</t>
+  </si>
+  <si>
+    <t>28.67(28.10–29.26)</t>
+  </si>
+  <si>
+    <t>28.41(27.81–29.00)</t>
+  </si>
+  <si>
+    <t>28.10(27.52–28.71)</t>
+  </si>
+  <si>
+    <t>Time_Dose</t>
+  </si>
+  <si>
+    <t>Inf days</t>
+  </si>
+  <si>
+    <t>150 days</t>
+  </si>
+  <si>
+    <t>180 days</t>
+  </si>
+  <si>
+    <t>120 days</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Annual</t>
+  </si>
+  <si>
+    <t>FDA-proposed</t>
+  </si>
+  <si>
+    <t>Annual with second dose for 65+</t>
+  </si>
+  <si>
+    <t>Annual with second dose for 50-64</t>
+  </si>
+  <si>
+    <t>Annual with second dose for 18-49</t>
   </si>
   <si>
     <t>Incidence</t>
@@ -584,122 +689,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>161</v>
+        <v>196</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>169</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>140</v>
+        <v>175</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>170</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
